--- a/static/files/salary_凃在福_P110030.xlsx
+++ b/static/files/salary_凃在福_P110030.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="薪資條" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="薪資條" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511" fullCalcOnLoad="1"/>
@@ -671,6 +671,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -691,36 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1152,29 +1152,29 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.625" customWidth="1" style="75" min="1" max="4"/>
+    <col width="14.6640625" customWidth="1" style="75" min="1" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="75">
-      <c r="A1" s="58" t="inlineStr">
+    <row r="1" ht="18" customHeight="1" s="75">
+      <c r="A1" s="68" t="inlineStr">
         <is>
           <t>艾力克電機股份有限公司</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1" s="75">
-      <c r="A2" s="59" t="inlineStr">
+    <row r="2" ht="18" customHeight="1" s="75">
+      <c r="A2" s="69" t="inlineStr">
         <is>
           <t>薪資條</t>
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="16.5" customHeight="1" s="75">
       <c r="A3" s="57" t="n"/>
       <c r="B3" s="57" t="n"/>
       <c r="C3" s="57" t="n"/>
@@ -1186,7 +1186,7 @@
       <c r="I3" s="57" t="n"/>
       <c r="J3" s="57" t="n"/>
     </row>
-    <row r="4" ht="17.25" customHeight="1" s="75" thickBot="1">
+    <row r="4" ht="15.6" customHeight="1" s="75" thickBot="1">
       <c r="A4" s="56" t="inlineStr">
         <is>
           <t>部門名稱</t>
@@ -1230,14 +1230,14 @@
       <c r="I4" s="78" t="n"/>
       <c r="J4" s="78" t="n"/>
     </row>
-    <row r="5" ht="17.25" customHeight="1" s="75" thickBot="1">
-      <c r="A5" s="60" t="inlineStr">
+    <row r="5" ht="15.6" customHeight="1" s="75" thickBot="1">
+      <c r="A5" s="70" t="inlineStr">
         <is>
           <t>薪資加項</t>
         </is>
       </c>
       <c r="B5" s="79" t="n"/>
-      <c r="C5" s="62" t="inlineStr">
+      <c r="C5" s="72" t="inlineStr">
         <is>
           <t>薪資減項</t>
         </is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="H5" s="82" t="n"/>
-      <c r="I5" s="64" t="inlineStr">
+      <c r="I5" s="74" t="inlineStr">
         <is>
           <t>備註</t>
         </is>
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="D6" s="84" t="n">
-        <v>270</v>
+        <v>662</v>
       </c>
       <c r="E6" s="46" t="inlineStr">
         <is>
@@ -1297,11 +1297,11 @@
     <row r="7">
       <c r="A7" s="24" t="inlineStr">
         <is>
-          <t>職務加給</t>
+          <t>免稅加班</t>
         </is>
       </c>
       <c r="B7" s="89" t="n">
-        <v>600</v>
+        <v>2963</v>
       </c>
       <c r="C7" s="27" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="D7" s="89" t="n">
-        <v>412</v>
+        <v>428</v>
       </c>
       <c r="E7" s="42" t="inlineStr">
         <is>
@@ -1326,18 +1326,18 @@
       <c r="I7" s="91" t="n"/>
       <c r="J7" s="92" t="n"/>
     </row>
-    <row r="8" ht="17.25" customHeight="1" s="75" thickBot="1">
+    <row r="8" ht="15.6" customHeight="1" s="75" thickBot="1">
       <c r="A8" s="24" t="inlineStr">
         <is>
-          <t>手機加給</t>
+          <t>工作津貼</t>
         </is>
       </c>
       <c r="B8" s="89" t="n">
-        <v>1000</v>
+        <v>3020</v>
       </c>
       <c r="C8" s="27" t="inlineStr">
         <is>
-          <t>勞退(6%)</t>
+          <t>勞退</t>
         </is>
       </c>
       <c r="D8" s="89" t="n">
@@ -1358,20 +1358,10 @@
       <c r="I8" s="91" t="n"/>
       <c r="J8" s="92" t="n"/>
     </row>
-    <row r="9" ht="17.25" customHeight="1" s="75" thickBot="1">
-      <c r="A9" s="24" t="inlineStr">
-        <is>
-          <t>伙食津貼</t>
-        </is>
-      </c>
-      <c r="B9" s="89" t="n">
-        <v>240</v>
-      </c>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>事假</t>
-        </is>
-      </c>
+    <row r="9" ht="15.6" customHeight="1" s="75" thickBot="1">
+      <c r="A9" s="24" t="n"/>
+      <c r="B9" s="89" t="n"/>
+      <c r="C9" s="27" t="n"/>
       <c r="D9" s="89" t="n"/>
       <c r="E9" s="93" t="inlineStr">
         <is>
@@ -1388,20 +1378,10 @@
       <c r="I9" s="91" t="n"/>
       <c r="J9" s="92" t="n"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1" s="75" thickBot="1">
-      <c r="A10" s="24" t="inlineStr">
-        <is>
-          <t>證照加給</t>
-        </is>
-      </c>
-      <c r="B10" s="89" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="27" t="inlineStr">
-        <is>
-          <t>病假</t>
-        </is>
-      </c>
+    <row r="10" ht="15.6" customHeight="1" s="75" thickBot="1">
+      <c r="A10" s="24" t="n"/>
+      <c r="B10" s="89" t="n"/>
+      <c r="C10" s="27" t="n"/>
       <c r="D10" s="89" t="n"/>
       <c r="E10" s="13" t="inlineStr">
         <is>
@@ -1419,17 +1399,9 @@
       <c r="J10" s="92" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="inlineStr">
-        <is>
-          <t>生活津貼</t>
-        </is>
-      </c>
+      <c r="A11" s="24" t="n"/>
       <c r="B11" s="89" t="n"/>
-      <c r="C11" s="27" t="inlineStr">
-        <is>
-          <t>曠職</t>
-        </is>
-      </c>
+      <c r="C11" s="27" t="n"/>
       <c r="D11" s="89" t="n"/>
       <c r="E11" s="13" t="n"/>
       <c r="F11" s="94" t="n"/>
@@ -1443,17 +1415,9 @@
       <c r="J11" s="92" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="inlineStr">
-        <is>
-          <t>車程加給</t>
-        </is>
-      </c>
+      <c r="A12" s="34" t="n"/>
       <c r="B12" s="89" t="n"/>
-      <c r="C12" s="27" t="inlineStr">
-        <is>
-          <t>其他免稅扣項</t>
-        </is>
-      </c>
+      <c r="C12" s="27" t="n"/>
       <c r="D12" s="89" t="n"/>
       <c r="E12" s="13" t="n"/>
       <c r="F12" s="94" t="n"/>
@@ -1467,17 +1431,9 @@
       <c r="J12" s="92" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="34" t="inlineStr">
-        <is>
-          <t>其他免稅加項</t>
-        </is>
-      </c>
+      <c r="A13" s="34" t="n"/>
       <c r="B13" s="89" t="n"/>
-      <c r="C13" s="27" t="inlineStr">
-        <is>
-          <t>勞健保短收補扣</t>
-        </is>
-      </c>
+      <c r="C13" s="27" t="n"/>
       <c r="D13" s="89" t="n"/>
       <c r="E13" s="13" t="n"/>
       <c r="F13" s="94" t="n"/>
@@ -1490,18 +1446,10 @@
       <c r="I13" s="91" t="n"/>
       <c r="J13" s="92" t="n"/>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="75" thickBot="1">
-      <c r="A14" s="24" t="inlineStr">
-        <is>
-          <t>特休未休代金</t>
-        </is>
-      </c>
+    <row r="14" ht="15.6" customHeight="1" s="75" thickBot="1">
+      <c r="A14" s="24" t="n"/>
       <c r="B14" s="89" t="n"/>
-      <c r="C14" s="27" t="inlineStr">
-        <is>
-          <t>代扣訂餐費</t>
-        </is>
-      </c>
+      <c r="C14" s="27" t="n"/>
       <c r="D14" s="89" t="n"/>
       <c r="E14" s="13" t="n"/>
       <c r="F14" s="98" t="n"/>
@@ -1514,12 +1462,8 @@
       <c r="I14" s="91" t="n"/>
       <c r="J14" s="92" t="n"/>
     </row>
-    <row r="15" ht="17.25" customHeight="1" s="75" thickBot="1">
-      <c r="A15" s="24" t="inlineStr">
-        <is>
-          <t>勞健保溢收退回</t>
-        </is>
-      </c>
+    <row r="15" ht="15.6" customHeight="1" s="75" thickBot="1">
+      <c r="A15" s="24" t="n"/>
       <c r="B15" s="89" t="n"/>
       <c r="C15" s="30" t="n"/>
       <c r="D15" s="89" t="n"/>
@@ -1535,11 +1479,7 @@
       <c r="J15" s="92" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="24" t="inlineStr">
-        <is>
-          <t>免稅加班</t>
-        </is>
-      </c>
+      <c r="A16" s="24" t="n"/>
       <c r="B16" s="89" t="n"/>
       <c r="C16" s="30" t="n"/>
       <c r="D16" s="89" t="n"/>
@@ -1555,11 +1495,7 @@
       <c r="J16" s="92" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="inlineStr">
-        <is>
-          <t>工作津貼</t>
-        </is>
-      </c>
+      <c r="A17" s="24" t="n"/>
       <c r="B17" s="89" t="n"/>
       <c r="C17" s="30" t="n"/>
       <c r="D17" s="89" t="n"/>
@@ -1574,12 +1510,8 @@
       <c r="I17" s="91" t="n"/>
       <c r="J17" s="92" t="n"/>
     </row>
-    <row r="18" ht="17.25" customHeight="1" s="75" thickBot="1">
-      <c r="A18" s="24" t="inlineStr">
-        <is>
-          <t>員工子女育兒津貼</t>
-        </is>
-      </c>
+    <row r="18" ht="15.6" customHeight="1" s="75" thickBot="1">
+      <c r="A18" s="24" t="n"/>
       <c r="B18" s="89" t="n"/>
       <c r="C18" s="29" t="n"/>
       <c r="D18" s="26" t="n"/>
@@ -1594,18 +1526,10 @@
       <c r="I18" s="91" t="n"/>
       <c r="J18" s="92" t="n"/>
     </row>
-    <row r="19" ht="17.25" customHeight="1" s="75" thickBot="1">
-      <c r="A19" s="24" t="inlineStr">
-        <is>
-          <t>車輀管理員津貼</t>
-        </is>
-      </c>
+    <row r="19" ht="15.6" customHeight="1" s="75" thickBot="1">
+      <c r="A19" s="24" t="n"/>
       <c r="B19" s="89" t="n"/>
-      <c r="C19" s="27" t="inlineStr">
-        <is>
-          <t>以下空白</t>
-        </is>
-      </c>
+      <c r="C19" s="27" t="n"/>
       <c r="D19" s="26" t="n"/>
       <c r="E19" s="93" t="inlineStr">
         <is>
@@ -1622,12 +1546,8 @@
       <c r="I19" s="91" t="n"/>
       <c r="J19" s="92" t="n"/>
     </row>
-    <row r="20" ht="17.25" customHeight="1" s="75" thickBot="1">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>以下空白</t>
-        </is>
-      </c>
+    <row r="20" ht="15.6" customHeight="1" s="75" thickBot="1">
+      <c r="A20" s="24" t="n"/>
       <c r="B20" s="89" t="n"/>
       <c r="C20" s="22" t="n"/>
       <c r="D20" s="21" t="n"/>
@@ -1694,7 +1614,7 @@
       <c r="I22" s="91" t="n"/>
       <c r="J22" s="92" t="n"/>
     </row>
-    <row r="23" ht="17.25" customHeight="1" s="75" thickBot="1">
+    <row r="23" ht="15.6" customHeight="1" s="75" thickBot="1">
       <c r="A23" s="9" t="inlineStr">
         <is>
           <t>加項合計</t>
